--- a/parsed_data.xlsx
+++ b/parsed_data.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashley/Documents/Work/Coding/marketResearchAnalysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{811F4F05-D179-3646-A084-7FD6D65D9E3B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4475703-0F38-614F-90D3-A9335F967973}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="13560" windowHeight="15540" xr2:uid="{0BF3C68F-BE7B-704E-BEBB-2A5A2118B0FC}"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="15880" windowHeight="15540" xr2:uid="{0BF3C68F-BE7B-704E-BEBB-2A5A2118B0FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="24">
   <si>
     <t>Beginner</t>
   </si>
@@ -79,6 +79,30 @@
   </si>
   <si>
     <t>88% of advanced readers feel accomplished after reading a book</t>
+  </si>
+  <si>
+    <t>Easy</t>
+  </si>
+  <si>
+    <t>I haven't tried</t>
+  </si>
+  <si>
+    <t>Neither easy nor hard</t>
+  </si>
+  <si>
+    <t>Hard</t>
+  </si>
+  <si>
+    <t>Very Hard</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Total %</t>
+  </si>
+  <si>
+    <t>55% of language learners surveyed found it hard or very hard to find a book in a foreign language that is level appropriate</t>
   </si>
 </sst>
 </file>
@@ -439,10 +463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{959B7D71-3EA7-3D48-98C5-369A22313E3E}">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -681,33 +705,120 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>10</v>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18">
+        <v>36</v>
+      </c>
+      <c r="C18">
+        <v>18</v>
+      </c>
+      <c r="D18">
+        <v>47</v>
+      </c>
+      <c r="E18">
+        <v>92</v>
+      </c>
+      <c r="F18">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19">
+        <f>B18*100/SUM(B18:F18)</f>
+        <v>16</v>
+      </c>
+      <c r="C19">
+        <f>C18*100/SUM(B18:F18)</f>
+        <v>8</v>
+      </c>
+      <c r="D19">
+        <f>D18*100/SUM(B18:F18)</f>
+        <v>20.888888888888889</v>
+      </c>
+      <c r="E19">
+        <f>E18*100/SUM(B18:F18)</f>
+        <v>40.888888888888886</v>
+      </c>
+      <c r="F19">
+        <f>F18*100/SUM(B18:F18)</f>
+        <v>14.222222222222221</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
